--- a/Application Onboarding Sheets/AzureAD NonSOT Onboarding.xlsx
+++ b/Application Onboarding Sheets/AzureAD NonSOT Onboarding.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Desktop\Final to Share\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mudit Sharma\Documents\GitHub\SaviyntArtifacts\Application Onboarding Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0ACF53B-979B-4E29-8744-F8486DD01EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8EF582-175A-41A4-B124-8B622810BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="757" xr2:uid="{0D3314D4-46CB-420C-ADCA-6829454732CD}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>oauth2</t>
   </si>
   <si>
-    <t>https://login.microsoftonline.com/b44c78d5-3982-4579-8837-38fa05d9e3cb/oauth2/token</t>
-  </si>
-  <si>
     <t>grant_type</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>Groups Removal API Details:</t>
+  </si>
+  <si>
+    <t>https://login.microsoftonline.com/identifier/oauth2/token</t>
   </si>
 </sst>
 </file>
@@ -505,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -624,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1722,7 +1725,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D1" s="26"/>
       <c r="E1" s="26"/>
@@ -2023,8 +2026,8 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2060,13 +2063,13 @@
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -2170,31 +2173,31 @@
       <c r="D12" s="13"/>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="15" t="s">
-        <v>49</v>
+      <c r="E13" s="43" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="18"/>
       <c r="C14" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="13"/>
@@ -2203,18 +2206,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="13" t="s">
@@ -2225,7 +2228,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="13" t="s">
@@ -2236,51 +2239,51 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="18"/>
       <c r="C20" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="15"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="15"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="18"/>
       <c r="C23" s="13" t="s">
@@ -2291,11 +2294,11 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="15"/>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="18"/>
       <c r="C26" s="13"/>
@@ -2318,35 +2321,35 @@
     </row>
     <row r="27" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
       <c r="E27" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>72</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="C29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2360,13 +2363,29 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1:D1" location="Index!A1" display="&lt;&lt; Go To Index &gt;&gt;" xr:uid="{4BB355E7-BBD0-4D0C-903B-AAB0BB9B4D6F}"/>
+    <hyperlink ref="E13" r:id="rId1" xr:uid="{F38F4BA1-2A43-4D62-9DFA-20392A8C93F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A8FA0DD69F74440B840354A12723DD2" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0cd6b04d102f97858e33f49835860783">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9424a4ab-45f9-47eb-99ae-1080c6865ff8" xmlns:ns4="7573251b-1a34-49cd-b29b-92afa25ab54f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4f0e717e644bc1db6a3532a267687f83" ns3:_="" ns4:_="">
     <xsd:import namespace="9424a4ab-45f9-47eb-99ae-1080c6865ff8"/>
@@ -2551,22 +2570,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CF234BC-3944-46F7-854B-0102D201DC88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9424a4ab-45f9-47eb-99ae-1080c6865ff8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="7573251b-1a34-49cd-b29b-92afa25ab54f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F3921-91C3-4276-B500-17B4470902F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2E880DD-C217-4E8F-B3FB-E241B9466138}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2583,29 +2612,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03F3921-91C3-4276-B500-17B4470902F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CF234BC-3944-46F7-854B-0102D201DC88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9424a4ab-45f9-47eb-99ae-1080c6865ff8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="7573251b-1a34-49cd-b29b-92afa25ab54f"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>